--- a/project/documents/results_excel.xlsx
+++ b/project/documents/results_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\project\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485D57EE-5D8E-4CF7-B9D2-B2EB302A1D8B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF59D23-24AB-45FE-ADFF-EE8A8889692C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" xr2:uid="{AAC5BE75-8D4D-44EC-BF4D-2E482D5ADBDC}"/>
   </bookViews>
@@ -4920,8 +4920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819B96B3-32F6-41F6-B309-B2F1420FBD6A}">
   <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T48" sqref="T48"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/project/documents/results_excel.xlsx
+++ b/project/documents/results_excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\project\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF59D23-24AB-45FE-ADFF-EE8A8889692C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B697735D-EA97-41DF-BB6B-4EA7DADE4B67}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" xr2:uid="{AAC5BE75-8D4D-44EC-BF4D-2E482D5ADBDC}"/>
   </bookViews>
@@ -4920,8 +4920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819B96B3-32F6-41F6-B309-B2F1420FBD6A}">
   <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/project/documents/results_excel.xlsx
+++ b/project/documents/results_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\project\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B697735D-EA97-41DF-BB6B-4EA7DADE4B67}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C6C7EF-B76D-4E4A-8484-20E967658FF5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" xr2:uid="{AAC5BE75-8D4D-44EC-BF4D-2E482D5ADBDC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>window lenght</t>
   </si>
@@ -63,16 +63,10 @@
     <t xml:space="preserve">MCC : </t>
   </si>
   <si>
-    <t>Best SVC</t>
-  </si>
-  <si>
     <t>RFC</t>
   </si>
   <si>
     <t>Random forest</t>
-  </si>
-  <si>
-    <t>Simple decision tree</t>
   </si>
   <si>
     <t>Sigmoid</t>
@@ -85,6 +79,9 @@
   </si>
   <si>
     <t>Rbf</t>
+  </si>
+  <si>
+    <t>Decision tree</t>
   </si>
 </sst>
 </file>
@@ -277,13 +274,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Arkusz1!$A$2:$A$17</c15:sqref>
+                    <c15:sqref>Arkusz1!$A$2:$A$12</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Arkusz1!$A$3:$A$17</c:f>
+              <c:f>Arkusz1!$A$3:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -313,21 +310,6 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>31</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -337,58 +319,43 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Arkusz1!$B$2:$B$17</c15:sqref>
+                    <c15:sqref>Arkusz1!$B$2:$B$12</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Arkusz1!$B$3:$B$17</c:f>
+              <c:f>Arkusz1!$B$3:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.72276161759099999</c:v>
+                  <c:v>0.72291014531196396</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.72647502570199995</c:v>
+                  <c:v>0.72654929783466204</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.72758885951800001</c:v>
+                  <c:v>0.72758885951756103</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.72677218041500002</c:v>
+                  <c:v>0.726846452548495</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.72751519956300004</c:v>
+                  <c:v>0.72751519956288402</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.72773781741800003</c:v>
+                  <c:v>0.72773780087245699</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.72818359912499997</c:v>
+                  <c:v>0.72833214339084895</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.72513880566599997</c:v>
+                  <c:v>0.72521309434417203</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.72409906198399998</c:v>
+                  <c:v>0.72409906198382601</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.72372766822800005</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.72513872293899995</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.72432177911100004</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.72313340843600005</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.71867777535599997</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.71808363138099995</c:v>
+                  <c:v>0.72372765168225905</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -443,13 +410,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Arkusz1!$A$2:$A$17</c15:sqref>
+                    <c15:sqref>Arkusz1!$A$2:$A$12</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Arkusz1!$A$3:$A$17</c:f>
+              <c:f>Arkusz1!$A$3:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -479,21 +446,6 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>31</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -503,58 +455,43 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Arkusz1!$C$2:$C$17</c15:sqref>
+                    <c15:sqref>Arkusz1!$C$2:$C$12</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Arkusz1!$C$3:$C$17</c:f>
+              <c:f>Arkusz1!$C$3:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.733530199986</c:v>
+                  <c:v>0.73405005528136502</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.73791199111299999</c:v>
+                  <c:v>0.73798623015499498</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.73820888110100003</c:v>
+                  <c:v>0.73813459242219703</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.74407631343400005</c:v>
+                  <c:v>0.74415056902149501</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.74311097424799999</c:v>
+                  <c:v>0.74318521329024101</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.74452176423299998</c:v>
+                  <c:v>0.74444752519097601</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.74674966350000005</c:v>
+                  <c:v>0.74682391908814605</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.74734377438400001</c:v>
+                  <c:v>0.74726950225063205</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.744373153786</c:v>
+                  <c:v>0.74415037047714305</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.74422475842799996</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.743704787315</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.74236795509999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.74066017585499999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.74021449342000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.74073448107899997</c:v>
+                  <c:v>0.74444755828170095</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -609,13 +546,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Arkusz1!$A$2:$A$17</c15:sqref>
+                    <c15:sqref>Arkusz1!$A$2:$A$12</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Arkusz1!$A$3:$A$17</c:f>
+              <c:f>Arkusz1!$A$3:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -645,21 +582,6 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>31</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -669,58 +591,43 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Arkusz1!$D$2:$D$17</c15:sqref>
+                    <c15:sqref>Arkusz1!$D$2:$D$12</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Arkusz1!$D$3:$D$17</c:f>
+              <c:f>Arkusz1!$D$3:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.72016222529600005</c:v>
+                  <c:v>0.73382735469961702</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.72684618782300003</c:v>
+                  <c:v>0.73664954684898798</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.72654931438000003</c:v>
+                  <c:v>0.73605530360277205</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.72885155196200002</c:v>
+                  <c:v>0.74244259123145995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.72848043947700003</c:v>
+                  <c:v>0.74526483301691904</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.72796051799999995</c:v>
+                  <c:v>0.74377937380964398</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.72825790434799997</c:v>
+                  <c:v>0.74518993216004203</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.72647542278999999</c:v>
+                  <c:v>0.74355614377628898</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.72461886764299999</c:v>
+                  <c:v>0.743036123027081</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.72424752352300004</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.72595555094899999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.72499009594599995</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.72313335879999996</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.71830643123500004</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.71719256432900003</c:v>
+                  <c:v>0.74392750444176803</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -775,13 +682,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Arkusz1!$A$2:$A$17</c15:sqref>
+                    <c15:sqref>Arkusz1!$A$2:$A$12</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Arkusz1!$A$3:$A$17</c:f>
+              <c:f>Arkusz1!$A$3:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -811,21 +718,6 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>31</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -835,14 +727,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Arkusz1!$E$2:$E$17</c15:sqref>
+                    <c15:sqref>Arkusz1!$E$2:$E$12</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Arkusz1!$E$3:$E$17</c:f>
+              <c:f>Arkusz1!$E$3:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.708651120114</c:v>
                 </c:pt>
@@ -871,21 +763,6 @@
                   <c:v>0.51518751786100003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.51518751786100003</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.51518751786100003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.51518751786100003</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.51518751786100003</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.51518751786100003</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>0.51518751786100003</c:v>
                 </c:pt>
               </c:numCache>
@@ -941,13 +818,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Arkusz1!$A$2:$A$17</c15:sqref>
+                    <c15:sqref>Arkusz1!$A$2:$A$12</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Arkusz1!$A$3:$A$17</c:f>
+              <c:f>Arkusz1!$A$3:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -977,21 +854,6 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>31</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1001,14 +863,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Arkusz1!$F$2:$F$17</c15:sqref>
+                    <c15:sqref>Arkusz1!$F$2:$F$12</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Arkusz1!$F$3:$F$17</c:f>
+              <c:f>Arkusz1!$F$3:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.73003960827463998</c:v>
                 </c:pt>
@@ -1038,21 +900,6 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.73976871171320302</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.74103120561292801</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.73947190445198596</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.73828396395652296</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.73865522534982497</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.73865540734881396</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1139,7 +986,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1522,10 +1369,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Arkusz1!$Q$3:$Q$17</c:f>
+              <c:f>Arkusz1!$Q$3:$Q$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1555,75 +1402,45 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$R$3:$R$17</c:f>
+              <c:f>Arkusz1!$R$3:$R$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.76420191060553699</c:v>
+                  <c:v>0.76204887910462304</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.764202258058154</c:v>
+                  <c:v>0.76368155894907497</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.76108272919595998</c:v>
+                  <c:v>0.75744299758556799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75566124402331802</c:v>
+                  <c:v>0.75930023109238898</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.76026565300509397</c:v>
+                  <c:v>0.76115675314861497</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.75499254664501703</c:v>
+                  <c:v>0.76011702601208897</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.75922622368509696</c:v>
+                  <c:v>0.75558667407369395</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.75662719538762901</c:v>
+                  <c:v>0.75298729832361</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.75447280716697396</c:v>
+                  <c:v>0.75722090918223905</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.75759213748481602</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.75157617743088101</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.75001644609050899</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.74615499007476704</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.75038810457251603</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.74964611123751701</c:v>
+                  <c:v>0.75588455678348598</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1644,7 +1461,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Simple decision tree</c:v>
+                  <c:v>Decision tree</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1675,10 +1492,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Arkusz1!$Q$3:$Q$17</c:f>
+              <c:f>Arkusz1!$Q$3:$Q$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1708,75 +1525,45 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$S$3:$S$17</c:f>
+              <c:f>Arkusz1!$S$3:$S$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.71236389950108403</c:v>
+                  <c:v>0.71258653390138205</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.717413759282444</c:v>
+                  <c:v>0.71533427191866705</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71823032256706698</c:v>
+                  <c:v>0.71837903228688504</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.70820426295902295</c:v>
+                  <c:v>0.71325423855792203</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.71927041370157196</c:v>
+                  <c:v>0.71867605463781703</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.71466618671878501</c:v>
+                  <c:v>0.71206662896971196</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.70909647164184397</c:v>
+                  <c:v>0.71481522734585701</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.71035880008794094</c:v>
+                  <c:v>0.70939389108147999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.71481433389627203</c:v>
+                  <c:v>0.71733973532978901</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.70917011505115701</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.70553121070889901</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.70939308035870796</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.71147283244828796</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.70590258791974003</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.69825295529959197</c:v>
+                  <c:v>0.714665425632102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1828,10 +1615,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Arkusz1!$Q$3:$Q$17</c:f>
+              <c:f>Arkusz1!$Q$3:$Q$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1861,75 +1648,45 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$T$3:$T$17</c:f>
+              <c:f>Arkusz1!$T$3:$T$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.733530199986</c:v>
+                  <c:v>0.73405005528136502</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.73791199111299999</c:v>
+                  <c:v>0.73798623015499498</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.73820888110100003</c:v>
+                  <c:v>0.73813459242219703</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.74407631343400005</c:v>
+                  <c:v>0.74415056902149501</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.74311097424799999</c:v>
+                  <c:v>0.74318521329024101</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.74452176423299998</c:v>
+                  <c:v>0.74444752519097601</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.74674966350000005</c:v>
+                  <c:v>0.74682391908814605</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.74734377438400001</c:v>
+                  <c:v>0.74726950225063205</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.744373153786</c:v>
+                  <c:v>0.74415037047714305</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.74422475842799996</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.743704787315</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.74236795509999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.74066017585499999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.74021449342000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.74073448107899997</c:v>
+                  <c:v>0.74444755828170095</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2397,10 +2154,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Arkusz1!$L$3:$L$17</c:f>
+              <c:f>Arkusz1!$L$3:$L$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -2430,75 +2187,45 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$M$3:$M$17</c:f>
+              <c:f>Arkusz1!$M$3:$M$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.733530199986</c:v>
+                  <c:v>0.73405005528136502</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.73791199111299999</c:v>
+                  <c:v>0.73798623015499498</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.73820888110100003</c:v>
+                  <c:v>0.73813459242219703</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.74407631343400005</c:v>
+                  <c:v>0.74415056902149501</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.74311097424799999</c:v>
+                  <c:v>0.74318521329024101</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.74452176423299998</c:v>
+                  <c:v>0.74444752519097601</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.74674966350000005</c:v>
+                  <c:v>0.74682391908814605</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.74734377438400001</c:v>
+                  <c:v>0.74726950225063205</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.744373153786</c:v>
+                  <c:v>0.74415037047714305</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.74422475842799996</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.743704787315</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.74236795509999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.74066017585499999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.74021449342000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.74073448107899997</c:v>
+                  <c:v>0.74444755828170095</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2550,10 +2277,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Arkusz1!$L$3:$L$17</c:f>
+              <c:f>Arkusz1!$L$3:$L$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -2583,75 +2310,45 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$N$3:$N$17</c:f>
+              <c:f>Arkusz1!$N$3:$N$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.69959124350577895</c:v>
+                  <c:v>0.69966543291206096</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.70582995377755098</c:v>
+                  <c:v>0.70523584289423602</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71281088901939804</c:v>
+                  <c:v>0.71221672849999595</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.71199368046563105</c:v>
+                  <c:v>0.712142158550372</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.71451878408261904</c:v>
+                  <c:v>0.71422167900487399</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.71236500804038405</c:v>
+                  <c:v>0.71251343648903698</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.71199359773881798</c:v>
+                  <c:v>0.71177081443025603</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.70991384564923798</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.71310736537336195</c:v>
+                  <c:v>0.71273597161715796</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.70776016887917803</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.70902274550571698</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.70879986292497899</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.70419517267203702</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.70293269531767499</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.70256136774292199</c:v>
+                  <c:v>0.70872559079188302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4931,16 +4628,16 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -4969,10 +4666,10 @@
         <v>7</v>
       </c>
       <c r="R2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="T2" t="s">
         <v>9</v>
@@ -4986,13 +4683,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>0.72276161759099999</v>
+        <v>0.72291014531196396</v>
       </c>
       <c r="C3" s="1">
-        <v>0.733530199986</v>
+        <v>0.73405005528136502</v>
       </c>
       <c r="D3" s="1">
-        <v>0.72016222529600005</v>
+        <v>0.73382735469961702</v>
       </c>
       <c r="E3" s="1">
         <v>0.708651120114</v>
@@ -5000,6 +4697,7 @@
       <c r="F3" s="1">
         <v>0.73003960827463998</v>
       </c>
+      <c r="G3" s="1"/>
       <c r="H3">
         <v>1E-3</v>
       </c>
@@ -5010,25 +4708,26 @@
         <v>3</v>
       </c>
       <c r="M3" s="1">
-        <v>0.733530199986</v>
-      </c>
-      <c r="N3">
-        <v>0.69959124350577895</v>
-      </c>
+        <v>0.73405005528136502</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.69966543291206096</v>
+      </c>
+      <c r="O3" s="1"/>
       <c r="Q3">
         <v>3</v>
       </c>
       <c r="R3" s="1">
-        <v>0.76420191060553699</v>
+        <v>0.76204887910462304</v>
       </c>
       <c r="S3" s="1">
-        <v>0.71236389950108403</v>
+        <v>0.71258653390138205</v>
       </c>
       <c r="T3" s="1">
-        <v>0.733530199986</v>
+        <v>0.73405005528136502</v>
       </c>
       <c r="V3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="W3">
         <v>0.49620064746991999</v>
@@ -5039,13 +4738,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>0.72647502570199995</v>
+        <v>0.72654929783466204</v>
       </c>
       <c r="C4" s="1">
-        <v>0.73791199111299999</v>
+        <v>0.73798623015499498</v>
       </c>
       <c r="D4" s="1">
-        <v>0.72684618782300003</v>
+        <v>0.73664954684898798</v>
       </c>
       <c r="E4" s="1">
         <v>0.72380174181599999</v>
@@ -5053,6 +4752,7 @@
       <c r="F4" s="1">
         <v>0.738060651196355</v>
       </c>
+      <c r="G4" s="1"/>
       <c r="H4">
         <v>2E-3</v>
       </c>
@@ -5063,28 +4763,29 @@
         <v>5</v>
       </c>
       <c r="M4" s="1">
-        <v>0.73791199111299999</v>
-      </c>
-      <c r="N4">
-        <v>0.70582995377755098</v>
-      </c>
+        <v>0.73798623015499498</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.70523584289423602</v>
+      </c>
+      <c r="O4" s="1"/>
       <c r="Q4">
         <v>5</v>
       </c>
       <c r="R4" s="1">
-        <v>0.764202258058154</v>
+        <v>0.76368155894907497</v>
       </c>
       <c r="S4" s="1">
-        <v>0.717413759282444</v>
+        <v>0.71533427191866705</v>
       </c>
       <c r="T4" s="1">
-        <v>0.73791199111299999</v>
+        <v>0.73798623015499498</v>
       </c>
       <c r="V4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W4">
-        <v>0.53779246606628595</v>
+        <v>0.53241451856259103</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -5092,13 +4793,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>0.72758885951800001</v>
+        <v>0.72758885951756103</v>
       </c>
       <c r="C5" s="1">
-        <v>0.73820888110100003</v>
+        <v>0.73813459242219703</v>
       </c>
       <c r="D5" s="1">
-        <v>0.72654931438000003</v>
+        <v>0.73605530360277205</v>
       </c>
       <c r="E5" s="1">
         <v>0.62473184930699999</v>
@@ -5106,6 +4807,7 @@
       <c r="F5" s="1">
         <v>0.73962018399237495</v>
       </c>
+      <c r="G5" s="1"/>
       <c r="H5">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -5116,25 +4818,29 @@
         <v>7</v>
       </c>
       <c r="M5" s="1">
-        <v>0.73820888110100003</v>
-      </c>
-      <c r="N5">
-        <v>0.71281088901939804</v>
-      </c>
+        <v>0.73813459242219703</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.71221672849999595</v>
+      </c>
+      <c r="O5" s="1"/>
       <c r="Q5">
         <v>7</v>
       </c>
       <c r="R5" s="1">
-        <v>0.76108272919595998</v>
+        <v>0.75744299758556799</v>
       </c>
       <c r="S5" s="1">
-        <v>0.71823032256706698</v>
+        <v>0.71837903228688504</v>
       </c>
       <c r="T5" s="1">
-        <v>0.73820888110100003</v>
+        <v>0.73813459242219703</v>
       </c>
       <c r="V5" t="s">
         <v>8</v>
+      </c>
+      <c r="W5">
+        <v>0.44144874571221099</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -5142,13 +4848,13 @@
         <v>9</v>
       </c>
       <c r="B6" s="1">
-        <v>0.72677218041500002</v>
+        <v>0.726846452548495</v>
       </c>
       <c r="C6" s="1">
-        <v>0.74407631343400005</v>
+        <v>0.74415056902149501</v>
       </c>
       <c r="D6" s="1">
-        <v>0.72885155196200002</v>
+        <v>0.74244259123145995</v>
       </c>
       <c r="E6" s="1">
         <v>0.53264077423300005</v>
@@ -5156,6 +4862,7 @@
       <c r="F6" s="1">
         <v>0.74303663593332403</v>
       </c>
+      <c r="G6" s="1"/>
       <c r="H6">
         <v>4.0000000000000001E-3</v>
       </c>
@@ -5166,22 +4873,23 @@
         <v>9</v>
       </c>
       <c r="M6" s="1">
-        <v>0.74407631343400005</v>
-      </c>
-      <c r="N6">
-        <v>0.71199368046563105</v>
-      </c>
+        <v>0.74415056902149501</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.712142158550372</v>
+      </c>
+      <c r="O6" s="1"/>
       <c r="Q6">
         <v>9</v>
       </c>
       <c r="R6" s="1">
-        <v>0.75566124402331802</v>
+        <v>0.75930023109238898</v>
       </c>
       <c r="S6" s="1">
-        <v>0.70820426295902295</v>
+        <v>0.71325423855792203</v>
       </c>
       <c r="T6" s="1">
-        <v>0.74407631343400005</v>
+        <v>0.74415056902149501</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -5189,13 +4897,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="1">
-        <v>0.72751519956300004</v>
+        <v>0.72751519956288402</v>
       </c>
       <c r="C7" s="1">
-        <v>0.74311097424799999</v>
+        <v>0.74318521329024101</v>
       </c>
       <c r="D7" s="1">
-        <v>0.72848043947700003</v>
+        <v>0.74526483301691904</v>
       </c>
       <c r="E7" s="1">
         <v>0.51748990435099995</v>
@@ -5203,6 +4911,7 @@
       <c r="F7" s="1">
         <v>0.74288820748467199</v>
       </c>
+      <c r="G7" s="1"/>
       <c r="H7">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -5213,22 +4922,23 @@
         <v>11</v>
       </c>
       <c r="M7" s="1">
-        <v>0.74311097424799999</v>
-      </c>
-      <c r="N7">
-        <v>0.71451878408261904</v>
-      </c>
+        <v>0.74318521329024101</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.71422167900487399</v>
+      </c>
+      <c r="O7" s="1"/>
       <c r="Q7">
         <v>11</v>
       </c>
       <c r="R7" s="1">
-        <v>0.76026565300509397</v>
+        <v>0.76115675314861497</v>
       </c>
       <c r="S7" s="1">
-        <v>0.71927041370157196</v>
+        <v>0.71867605463781703</v>
       </c>
       <c r="T7" s="1">
-        <v>0.74311097424799999</v>
+        <v>0.74318521329024101</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -5236,13 +4946,13 @@
         <v>13</v>
       </c>
       <c r="B8" s="2">
-        <v>0.72773781741800003</v>
+        <v>0.72773780087245699</v>
       </c>
       <c r="C8" s="1">
-        <v>0.74452176423299998</v>
+        <v>0.74444752519097601</v>
       </c>
       <c r="D8" s="2">
-        <v>0.72796051799999995</v>
+        <v>0.74377937380964398</v>
       </c>
       <c r="E8" s="1">
         <v>0.51503897359499995</v>
@@ -5250,6 +4960,7 @@
       <c r="F8" s="1">
         <v>0.74214538688153897</v>
       </c>
+      <c r="G8" s="1"/>
       <c r="H8">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -5260,22 +4971,23 @@
         <v>13</v>
       </c>
       <c r="M8" s="1">
-        <v>0.74452176423299998</v>
-      </c>
-      <c r="N8">
-        <v>0.71236500804038405</v>
-      </c>
+        <v>0.74444752519097601</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.71251343648903698</v>
+      </c>
+      <c r="O8" s="1"/>
       <c r="Q8">
         <v>13</v>
       </c>
       <c r="R8" s="1">
-        <v>0.75499254664501703</v>
+        <v>0.76011702601208897</v>
       </c>
       <c r="S8" s="1">
-        <v>0.71466618671878501</v>
+        <v>0.71206662896971196</v>
       </c>
       <c r="T8" s="1">
-        <v>0.74452176423299998</v>
+        <v>0.74444752519097601</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -5283,13 +4995,13 @@
         <v>15</v>
       </c>
       <c r="B9" s="1">
-        <v>0.72818359912499997</v>
+        <v>0.72833214339084895</v>
       </c>
       <c r="C9" s="1">
-        <v>0.74674966350000005</v>
+        <v>0.74682391908814605</v>
       </c>
       <c r="D9" s="1">
-        <v>0.72825790434799997</v>
+        <v>0.74518993216004203</v>
       </c>
       <c r="E9" s="1">
         <v>0.51526178999399996</v>
@@ -5297,6 +5009,7 @@
       <c r="F9" s="1">
         <v>0.74184823216770501</v>
       </c>
+      <c r="G9" s="1"/>
       <c r="H9">
         <v>7.0000000000000001E-3</v>
       </c>
@@ -5307,22 +5020,23 @@
         <v>15</v>
       </c>
       <c r="M9" s="1">
-        <v>0.74674966350000005</v>
-      </c>
-      <c r="N9">
-        <v>0.71199359773881798</v>
-      </c>
+        <v>0.74682391908814605</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.71177081443025603</v>
+      </c>
+      <c r="O9" s="1"/>
       <c r="Q9">
         <v>15</v>
       </c>
       <c r="R9" s="1">
-        <v>0.75922622368509696</v>
+        <v>0.75558667407369395</v>
       </c>
       <c r="S9" s="1">
-        <v>0.70909647164184397</v>
+        <v>0.71481522734585701</v>
       </c>
       <c r="T9" s="1">
-        <v>0.74674966350000005</v>
+        <v>0.74682391908814605</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -5330,13 +5044,13 @@
         <v>17</v>
       </c>
       <c r="B10" s="1">
-        <v>0.72513880566599997</v>
+        <v>0.72521309434417203</v>
       </c>
       <c r="C10" s="1">
-        <v>0.74734377438400001</v>
+        <v>0.74726950225063205</v>
       </c>
       <c r="D10" s="2">
-        <v>0.72647542278999999</v>
+        <v>0.74355614377628898</v>
       </c>
       <c r="E10" s="1">
         <v>0.51518751786100003</v>
@@ -5344,6 +5058,7 @@
       <c r="F10" s="1">
         <v>0.74311057715916595</v>
       </c>
+      <c r="G10" s="1"/>
       <c r="H10">
         <v>8.0000000000000002E-3</v>
       </c>
@@ -5354,22 +5069,23 @@
         <v>17</v>
       </c>
       <c r="M10" s="1">
-        <v>0.74734377438400001</v>
-      </c>
-      <c r="N10">
+        <v>0.74726950225063205</v>
+      </c>
+      <c r="N10" s="1">
         <v>0.70991384564923798</v>
       </c>
+      <c r="O10" s="1"/>
       <c r="Q10">
         <v>17</v>
       </c>
       <c r="R10" s="1">
-        <v>0.75662719538762901</v>
+        <v>0.75298729832361</v>
       </c>
       <c r="S10" s="1">
-        <v>0.71035880008794094</v>
+        <v>0.70939389108147999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.74734377438400001</v>
+        <v>0.74726950225063205</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -5377,13 +5093,13 @@
         <v>19</v>
       </c>
       <c r="B11" s="1">
-        <v>0.72409906198399998</v>
+        <v>0.72409906198382601</v>
       </c>
       <c r="C11" s="1">
-        <v>0.744373153786</v>
+        <v>0.74415037047714305</v>
       </c>
       <c r="D11" s="1">
-        <v>0.72461886764299999</v>
+        <v>0.743036123027081</v>
       </c>
       <c r="E11" s="1">
         <v>0.51518751786100003</v>
@@ -5391,6 +5107,7 @@
       <c r="F11" s="1">
         <v>0.74051128413589495</v>
       </c>
+      <c r="G11" s="1"/>
       <c r="H11">
         <v>8.9999999999999993E-3</v>
       </c>
@@ -5401,22 +5118,23 @@
         <v>19</v>
       </c>
       <c r="M11" s="1">
-        <v>0.744373153786</v>
-      </c>
-      <c r="N11">
-        <v>0.71310736537336195</v>
-      </c>
+        <v>0.74415037047714305</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.71273597161715796</v>
+      </c>
+      <c r="O11" s="1"/>
       <c r="Q11">
         <v>19</v>
       </c>
       <c r="R11" s="1">
-        <v>0.75447280716697396</v>
+        <v>0.75722090918223905</v>
       </c>
       <c r="S11" s="1">
-        <v>0.71481433389627203</v>
+        <v>0.71733973532978901</v>
       </c>
       <c r="T11" s="1">
-        <v>0.744373153786</v>
+        <v>0.74415037047714305</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -5424,13 +5142,13 @@
         <v>21</v>
       </c>
       <c r="B12" s="1">
-        <v>0.72372766822800005</v>
+        <v>0.72372765168225905</v>
       </c>
       <c r="C12" s="1">
-        <v>0.74422475842799996</v>
+        <v>0.74444755828170095</v>
       </c>
       <c r="D12" s="1">
-        <v>0.72424752352300004</v>
+        <v>0.74392750444176803</v>
       </c>
       <c r="E12" s="1">
         <v>0.51518751786100003</v>
@@ -5438,6 +5156,7 @@
       <c r="F12" s="1">
         <v>0.73976871171320302</v>
       </c>
+      <c r="G12" s="1"/>
       <c r="H12">
         <v>0.01</v>
       </c>
@@ -5448,228 +5167,79 @@
         <v>21</v>
       </c>
       <c r="M12" s="1">
-        <v>0.74422475842799996</v>
-      </c>
-      <c r="N12">
-        <v>0.70776016887917803</v>
-      </c>
+        <v>0.74444755828170095</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.70872559079188302</v>
+      </c>
+      <c r="O12" s="1"/>
       <c r="Q12">
         <v>21</v>
       </c>
       <c r="R12" s="1">
-        <v>0.75759213748481602</v>
+        <v>0.75588455678348598</v>
       </c>
       <c r="S12" s="1">
-        <v>0.70917011505115701</v>
+        <v>0.714665425632102</v>
       </c>
       <c r="T12" s="1">
-        <v>0.74422475842799996</v>
+        <v>0.74444755828170095</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>23</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.72513872293899995</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.743704787315</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.72595555094899999</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.51518751786100003</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.74103120561292801</v>
-      </c>
-      <c r="L13">
-        <v>23</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0.743704787315</v>
-      </c>
-      <c r="N13">
-        <v>0.70902274550571698</v>
-      </c>
-      <c r="Q13">
-        <v>23</v>
-      </c>
-      <c r="R13" s="1">
-        <v>0.75157617743088101</v>
-      </c>
-      <c r="S13" s="1">
-        <v>0.70553121070889901</v>
-      </c>
-      <c r="T13" s="1">
-        <v>0.743704787315</v>
-      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>25</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.72432177911100004</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.74236795509999998</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.72499009594599995</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.51518751786100003</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.73947190445198596</v>
-      </c>
-      <c r="L14">
-        <v>25</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0.74236795509999998</v>
-      </c>
-      <c r="N14">
-        <v>0.70879986292497899</v>
-      </c>
-      <c r="Q14">
-        <v>25</v>
-      </c>
-      <c r="R14" s="1">
-        <v>0.75001644609050899</v>
-      </c>
-      <c r="S14" s="1">
-        <v>0.70939308035870796</v>
-      </c>
-      <c r="T14" s="1">
-        <v>0.74236795509999998</v>
-      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>27</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0.72313340843600005</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.74066017585499999</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.72313335879999996</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.51518751786100003</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.73828396395652296</v>
-      </c>
-      <c r="L15">
-        <v>27</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0.74066017585499999</v>
-      </c>
-      <c r="N15">
-        <v>0.70419517267203702</v>
-      </c>
-      <c r="Q15">
-        <v>27</v>
-      </c>
-      <c r="R15" s="1">
-        <v>0.74615499007476704</v>
-      </c>
-      <c r="S15" s="1">
-        <v>0.71147283244828796</v>
-      </c>
-      <c r="T15" s="1">
-        <v>0.74066017585499999</v>
-      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>29</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.71867777535599997</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.74021449342000001</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.71830643123500004</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.51518751786100003</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.73865522534982497</v>
-      </c>
-      <c r="L16">
-        <v>29</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0.74021449342000001</v>
-      </c>
-      <c r="N16">
-        <v>0.70293269531767499</v>
-      </c>
-      <c r="Q16">
-        <v>29</v>
-      </c>
-      <c r="R16" s="1">
-        <v>0.75038810457251603</v>
-      </c>
-      <c r="S16" s="1">
-        <v>0.70590258791974003</v>
-      </c>
-      <c r="T16" s="1">
-        <v>0.74021449342000001</v>
-      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>31</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0.71808363138099995</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.74073448107899997</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.71719256432900003</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.51518751786100003</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.73865540734881396</v>
-      </c>
-      <c r="L17">
-        <v>31</v>
-      </c>
-      <c r="M17" s="1">
-        <v>0.74073448107899997</v>
-      </c>
-      <c r="N17">
-        <v>0.70256136774292199</v>
-      </c>
-      <c r="Q17">
-        <v>31</v>
-      </c>
-      <c r="R17" s="1">
-        <v>0.74964611123751701</v>
-      </c>
-      <c r="S17" s="1">
-        <v>0.69825295529959197</v>
-      </c>
-      <c r="T17" s="1">
-        <v>0.74073448107899997</v>
-      </c>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
